--- a/Study Note/Boostcamp AI tech/Level1/p_stage_experiments.xlsx
+++ b/Study Note/Boostcamp AI tech/Level1/p_stage_experiments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>model</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,18 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VGG16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ViT_tiny</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ViT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lr initial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,10 +167,6 @@
   </si>
   <si>
     <t>Crop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -544,7 +528,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -585,10 +569,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
@@ -788,25 +772,25 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>82.38</v>
-      </c>
-      <c r="M9">
-        <v>0.42</v>
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>80.33</v>
+      </c>
+      <c r="O9">
+        <v>0.37</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -820,16 +804,16 @@
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N10">
-        <v>80.33</v>
+        <v>81.97</v>
       </c>
       <c r="O10">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -843,16 +827,28 @@
         <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>90.2</v>
+      </c>
+      <c r="K11">
+        <v>0.36</v>
+      </c>
+      <c r="L11">
+        <v>82.38</v>
+      </c>
+      <c r="M11">
+        <v>0.39</v>
       </c>
       <c r="N11">
-        <v>81.97</v>
+        <v>82.79</v>
       </c>
       <c r="O11">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -866,28 +862,28 @@
         <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="J12">
-        <v>90.2</v>
+        <v>89.34</v>
       </c>
       <c r="K12">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="L12">
-        <v>82.38</v>
+        <v>81.760000000000005</v>
       </c>
       <c r="M12">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="N12">
-        <v>82.79</v>
+        <v>82.17</v>
       </c>
       <c r="O12">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -901,69 +897,60 @@
         <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="H13">
+        <v>99.24</v>
+      </c>
+      <c r="I13">
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="J13">
-        <v>89.34</v>
+        <v>89.67</v>
       </c>
       <c r="K13">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="L13">
-        <v>81.760000000000005</v>
+        <v>82.99</v>
       </c>
       <c r="M13">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="N13">
-        <v>82.17</v>
+        <v>82.38</v>
       </c>
       <c r="O13">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14">
-        <v>99.24</v>
-      </c>
-      <c r="I14">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="J14">
-        <v>89.67</v>
-      </c>
-      <c r="K14">
-        <v>0.38</v>
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>82.99</v>
+        <v>82.38</v>
       </c>
       <c r="M14">
-        <v>0.37</v>
-      </c>
-      <c r="N14">
-        <v>82.38</v>
-      </c>
-      <c r="O14">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -993,11 +980,17 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1010,6 +1003,12 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>16</v>
       </c>
@@ -1024,6 +1023,12 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>16</v>
       </c>
@@ -1032,17 +1037,23 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
       <c r="C19">
         <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L19">
         <v>85.66</v>
@@ -1055,8 +1066,14 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J20">
         <v>87.06</v>
@@ -1078,6 +1095,12 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
       <c r="G21">
         <v>5</v>
       </c>
@@ -1085,70 +1108,9 @@
         <v>83.61</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22">
-        <v>1E-4</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E26" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1156,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1164,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1172,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1180,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1188,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
